--- a/src/data/Professor.xlsx
+++ b/src/data/Professor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DW2\Desktop\Sameer\testattendance\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34B2A41-2EFC-4572-BB2E-C63E833E09BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADA6A88-035B-404B-B3D5-B9183A895615}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -176,13 +176,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -467,7 +468,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,7 +499,7 @@
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -514,7 +515,7 @@
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -707,8 +708,9 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{A24CC687-0C24-4D56-B1B5-130C28A998C3}"/>
     <hyperlink ref="B4" r:id="rId2" xr:uid="{B6946FCD-5B2F-45BD-9A79-547DB4B7E5BE}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{6736BAEF-6C68-4F58-BF20-AEEE475ADAE1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>